--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E848C-98EE-4476-9BD2-E9CF87C61666}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -474,31 +474,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>5.0</v>
+        <v>900.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>245.0</v>
+        <v>255.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>230.0</v>
+        <v>240.0</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>60.0</v>
+        <v>10800.0</v>
       </c>
     </row>
     <row r="3">
@@ -506,13 +506,13 @@
         <v>3.0</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>245.0</v>
+        <v>248.0</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>230.0</v>
@@ -521,129 +521,13 @@
         <v>3.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>198.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>179.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>255.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>240.0</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>245.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>230.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>198.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>179.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>64.0</v>
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E848C-98EE-4476-9BD2-E9CF87C61666}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -472,64 +472,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>900.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>255.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>240.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>10800.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>248.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>230.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>15.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E848C-98EE-4476-9BD2-E9CF87C61666}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -472,6 +472,93 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E848C-98EE-4476-9BD2-E9CF87C61666}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -477,13 +477,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>255.0</v>
+        <v>245.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>240.0</v>
@@ -498,24 +498,24 @@
         <v>1.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>140.0</v>
+        <v>245.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>132.0</v>
+        <v>240.0</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>3.0</v>
@@ -527,36 +527,152 @@
         <v>1.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
+      <c r="G4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D4" t="n" s="0">
-        <v>140.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>132.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
+      <c r="C7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
         <v>5.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>120.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E848C-98EE-4476-9BD2-E9CF87C61666}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -472,209 +472,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>245.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>240.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>245.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>240.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>245.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>240.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>250.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>240.0</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>245.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>230.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>245.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>230.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>267.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>240.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I8" t="n" s="0">
-        <v>120.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E848C-98EE-4476-9BD2-E9CF87C61666}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -472,6 +472,64 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>1100.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>91.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E848C-98EE-4476-9BD2-E9CF87C61666}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -472,64 +472,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>198.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>184.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>195.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>179.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>91.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programacion 3\proyecto\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF86062-AEED-42B9-8B80-DBBB54BC0D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ACABDB-9AD0-493F-8A6F-5886F7B9F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3576" yWindow="1584" windowWidth="15588" windowHeight="10260" xr2:uid="{3ED4B920-47A2-4222-8454-751B03640890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3ED4B920-47A2-4222-8454-751B03640890}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -69,7 +69,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,34 +440,34 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -69,6 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,31 +444,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/ventas.xlsx
+++ b/ProyectoPooDist/excels/ventas.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E848C-98EE-4476-9BD2-E9CF87C61666}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -472,6 +472,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
